--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/135.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/135.xlsx
@@ -479,13 +479,13 @@
         <v>0.0725219341787382</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.853008279960503</v>
+        <v>-2.044947267329733</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04424513268990372</v>
+        <v>0.1242057334115741</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1323506901350522</v>
+        <v>-0.1004762355681987</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.09773436188657399</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.977049067832109</v>
+        <v>-2.211122595392449</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.003379303512614891</v>
+        <v>0.06628156674081105</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1141817630954043</v>
+        <v>-0.1024499388781554</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.1274621162349154</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.104892101202563</v>
+        <v>-2.349933832292862</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.01927322642799253</v>
+        <v>0.05982921590149334</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1345476244126987</v>
+        <v>-0.115555304459441</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.1421650299898403</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.150957580155313</v>
+        <v>-2.446056111107003</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00543588002842479</v>
+        <v>0.08063787963010684</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.15111794935859</v>
+        <v>-0.1357558772733366</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.1294705011869583</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.079160157771239</v>
+        <v>-2.403921570915894</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02801819308502164</v>
+        <v>0.08429008464247421</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1404010331474498</v>
+        <v>-0.1433750063672734</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.08979380364107206</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.824407269665757</v>
+        <v>-2.086052261418492</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1284770079108408</v>
+        <v>0.1923009372877878</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1430407698364154</v>
+        <v>-0.1294505173171152</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.03531548853055747</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.478994552327089</v>
+        <v>-1.774079665023891</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2038918698287079</v>
+        <v>0.2192393038177193</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1186909066586027</v>
+        <v>-0.09665996189378613</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.01908694247555662</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.075977876672952</v>
+        <v>-1.366825260507708</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2619508289690323</v>
+        <v>0.2063596088868305</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.09101514603048284</v>
+        <v>-0.09442155301012076</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.05289496244796266</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.5971437914542935</v>
+        <v>-0.9241911872954</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2483282506538644</v>
+        <v>0.1883797572569745</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.05121111274522784</v>
+        <v>-0.01960136375208299</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.04631141509810806</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.01126252825958354</v>
+        <v>-0.375966426683115</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1909591117989421</v>
+        <v>0.119533741027684</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03330132598701331</v>
+        <v>0.04252576630215094</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.01718935402119559</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5597537482014228</v>
+        <v>0.165447959652601</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0199904171376637</v>
+        <v>-0.08411938285916931</v>
       </c>
       <c r="G12" t="n">
-        <v>0.08719147730176473</v>
+        <v>0.1292400186774526</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.142840317185984</v>
       </c>
       <c r="E13" t="n">
-        <v>1.148837704869737</v>
+        <v>0.7207789060696775</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.1331265092358758</v>
+        <v>-0.2223871804366006</v>
       </c>
       <c r="G13" t="n">
-        <v>0.192849865896861</v>
+        <v>0.2293774053066255</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.3260010999573201</v>
       </c>
       <c r="E14" t="n">
-        <v>1.753117225278552</v>
+        <v>1.280923956388327</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.364135795316233</v>
+        <v>-0.4560953655115679</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2927591421929301</v>
+        <v>0.358822700294896</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.5566796997156213</v>
       </c>
       <c r="E15" t="n">
-        <v>2.39338816482227</v>
+        <v>1.842753607616153</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.6477635481003219</v>
+        <v>-0.7651891363119184</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4107452475064582</v>
+        <v>0.4749625757199077</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.8170950881371236</v>
       </c>
       <c r="E16" t="n">
-        <v>2.932921555790895</v>
+        <v>2.351726923076317</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.954718327087317</v>
+        <v>-0.9876259872805817</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5309758609104192</v>
+        <v>0.5822677501422239</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.082324147349108</v>
       </c>
       <c r="E17" t="n">
-        <v>3.426307128515409</v>
+        <v>2.837582415125699</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.268320631530189</v>
+        <v>-1.305448942806551</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6554137071425882</v>
+        <v>0.7018853932660529</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.324096182722394</v>
       </c>
       <c r="E18" t="n">
-        <v>3.825173293964276</v>
+        <v>3.242888123079672</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.620476021950306</v>
+        <v>-1.628386693127728</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8202947835292442</v>
+        <v>0.853538510015397</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.527370567226536</v>
       </c>
       <c r="E19" t="n">
-        <v>4.208019282917678</v>
+        <v>3.57461666011482</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.962279228723978</v>
+        <v>-1.933199430697984</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9660902220991</v>
+        <v>1.010363144182888</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.687081513523413</v>
       </c>
       <c r="E20" t="n">
-        <v>4.545986088634605</v>
+        <v>3.915964866063638</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.278057120220811</v>
+        <v>-2.210343116767564</v>
       </c>
       <c r="G20" t="n">
-        <v>1.099581730856917</v>
+        <v>1.146274818186041</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.801832836740273</v>
       </c>
       <c r="E21" t="n">
-        <v>4.741843816351941</v>
+        <v>4.151449140149295</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.594341855800021</v>
+        <v>-2.469971100842294</v>
       </c>
       <c r="G21" t="n">
-        <v>1.225280893048601</v>
+        <v>1.292038540880706</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.869751731523688</v>
       </c>
       <c r="E22" t="n">
-        <v>4.924211318540964</v>
+        <v>4.327005048220396</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.865836456561561</v>
+        <v>-2.761644927194043</v>
       </c>
       <c r="G22" t="n">
-        <v>1.371409348307961</v>
+        <v>1.385772980245378</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.890818539821622</v>
       </c>
       <c r="E23" t="n">
-        <v>5.044135141844521</v>
+        <v>4.491704368245381</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.141119579606721</v>
+        <v>-3.049908382081756</v>
       </c>
       <c r="G23" t="n">
-        <v>1.455569862809719</v>
+        <v>1.498766274899047</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.871564444304761</v>
       </c>
       <c r="E24" t="n">
-        <v>5.136316113245515</v>
+        <v>4.57725062252471</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.312270640550347</v>
+        <v>-3.240794951323257</v>
       </c>
       <c r="G24" t="n">
-        <v>1.550407648678628</v>
+        <v>1.612975751382151</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.8212461898042</v>
       </c>
       <c r="E25" t="n">
-        <v>5.174661826192666</v>
+        <v>4.657111196255394</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.436963433625397</v>
+        <v>-3.387214033785088</v>
       </c>
       <c r="G25" t="n">
-        <v>1.609833440055545</v>
+        <v>1.693557251352751</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.750851059332706</v>
       </c>
       <c r="E26" t="n">
-        <v>5.142823966866417</v>
+        <v>4.665928209558464</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.489623984855824</v>
+        <v>-3.511392968689977</v>
       </c>
       <c r="G26" t="n">
-        <v>1.628136549644077</v>
+        <v>1.738909123113706</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.669451458902272</v>
       </c>
       <c r="E27" t="n">
-        <v>5.069949424567206</v>
+        <v>4.635266277296986</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.567170824499264</v>
+        <v>-3.591850654763197</v>
       </c>
       <c r="G27" t="n">
-        <v>1.623257184230093</v>
+        <v>1.734370703358024</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.586330271120956</v>
       </c>
       <c r="E28" t="n">
-        <v>4.972309663109316</v>
+        <v>4.557001256056675</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.565552704943852</v>
+        <v>-3.614919379559501</v>
       </c>
       <c r="G28" t="n">
-        <v>1.605926288200297</v>
+        <v>1.72887043869511</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.507511968215135</v>
       </c>
       <c r="E29" t="n">
-        <v>4.801420868056692</v>
+        <v>4.401469043803213</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.53048013130847</v>
+        <v>-3.606309129365849</v>
       </c>
       <c r="G29" t="n">
-        <v>1.568926670186729</v>
+        <v>1.69550045862887</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.436361378070461</v>
       </c>
       <c r="E30" t="n">
-        <v>4.650104427520913</v>
+        <v>4.267186467927654</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.416221251250549</v>
+        <v>-3.484239605121492</v>
       </c>
       <c r="G30" t="n">
-        <v>1.514224104530549</v>
+        <v>1.654957201483396</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.373123537358145</v>
       </c>
       <c r="E31" t="n">
-        <v>4.446514125463764</v>
+        <v>4.102706719346298</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.344046897888244</v>
+        <v>-3.42879476600171</v>
       </c>
       <c r="G31" t="n">
-        <v>1.436598890080147</v>
+        <v>1.541291164323275</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.315586761869045</v>
       </c>
       <c r="E32" t="n">
-        <v>4.246963937969395</v>
+        <v>3.879004892894059</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.222666888968952</v>
+        <v>-3.288601448847785</v>
       </c>
       <c r="G32" t="n">
-        <v>1.396039774997078</v>
+        <v>1.489037430184238</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.26299841020366</v>
       </c>
       <c r="E33" t="n">
-        <v>4.003604368105567</v>
+        <v>3.643901209310692</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.088038183109338</v>
+        <v>-3.179034078635411</v>
       </c>
       <c r="G33" t="n">
-        <v>1.296195150292744</v>
+        <v>1.362572207622559</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.212162072159134</v>
       </c>
       <c r="E34" t="n">
-        <v>3.726079481613019</v>
+        <v>3.339623982094621</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.885801599994231</v>
+        <v>-2.88868835455728</v>
       </c>
       <c r="G34" t="n">
-        <v>1.179279455766909</v>
+        <v>1.20319078597814</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.162031258128852</v>
       </c>
       <c r="E35" t="n">
-        <v>3.479234825002251</v>
+        <v>3.101245024477117</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.771361573495317</v>
+        <v>-2.784263225570569</v>
       </c>
       <c r="G35" t="n">
-        <v>1.088930686078866</v>
+        <v>1.111176932842574</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.108629285253649</v>
       </c>
       <c r="E36" t="n">
-        <v>3.207990901638855</v>
+        <v>2.800800538793731</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.640701926439641</v>
+        <v>-2.63015212849393</v>
       </c>
       <c r="G36" t="n">
-        <v>1.021712548135816</v>
+        <v>1.010743124764502</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.050204088203958</v>
       </c>
       <c r="E37" t="n">
-        <v>2.935063597207634</v>
+        <v>2.518774437706782</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.532039068590884</v>
+        <v>-2.533402851224092</v>
       </c>
       <c r="G37" t="n">
-        <v>0.91770643465403</v>
+        <v>0.9599879657282356</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.9844684805567296</v>
       </c>
       <c r="E38" t="n">
-        <v>2.664039245287867</v>
+        <v>2.270900234993665</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.419113475132334</v>
+        <v>-2.392247079242259</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8461438317305037</v>
+        <v>0.8751961833260439</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.9110708862557727</v>
       </c>
       <c r="E39" t="n">
-        <v>2.407115039573162</v>
+        <v>2.020177092799456</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.313968029826383</v>
+        <v>-2.282680928871238</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7539549313607115</v>
+        <v>0.7359872781443904</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.831281822320396</v>
       </c>
       <c r="E40" t="n">
-        <v>2.151869335560867</v>
+        <v>1.779560336218964</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.236814893979784</v>
+        <v>-2.239288732244674</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6823185280352985</v>
+        <v>0.6462398902436206</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.7462412796188278</v>
       </c>
       <c r="E41" t="n">
-        <v>1.861846564481075</v>
+        <v>1.488160364251075</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.147307204904976</v>
+        <v>-2.126477803873353</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5980195615399192</v>
+        <v>0.5793084150186423</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.6588248130259842</v>
       </c>
       <c r="E42" t="n">
-        <v>1.640210539360982</v>
+        <v>1.264345702473638</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.059997669949168</v>
+        <v>-2.044009209328895</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5390359626536447</v>
+        <v>0.5253328748091461</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.5710588317883694</v>
       </c>
       <c r="E43" t="n">
-        <v>1.392884045415584</v>
+        <v>1.035192405012625</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.964341370532063</v>
+        <v>-1.948181522201624</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4661974056743614</v>
+        <v>0.4468354737909943</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.4873034510178387</v>
       </c>
       <c r="E44" t="n">
-        <v>1.214643266525438</v>
+        <v>0.8362753151807201</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.873930998855668</v>
+        <v>-1.880493745337478</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4171969884250992</v>
+        <v>0.4219415613695223</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.4101303582140134</v>
       </c>
       <c r="E45" t="n">
-        <v>1.033693219989178</v>
+        <v>0.6783814900668899</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.800771623600416</v>
+        <v>-1.838944728996047</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3479465947871247</v>
+        <v>0.3541885229929643</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.3416459070648171</v>
       </c>
       <c r="E46" t="n">
-        <v>0.8633021202087799</v>
+        <v>0.5058410298216317</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.731238836689107</v>
+        <v>-1.782797871177327</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2487155502835994</v>
+        <v>0.2673278896552431</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2824893895984414</v>
       </c>
       <c r="E47" t="n">
-        <v>0.6930403236118526</v>
+        <v>0.3705594038775589</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.658996782131683</v>
+        <v>-1.73133398431468</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1923814468171185</v>
+        <v>0.1983513504011285</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.2314785702586131</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5314528188796361</v>
+        <v>0.2686910623677751</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.560825169843669</v>
+        <v>-1.626303814016634</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1159309395901332</v>
+        <v>0.1080355164296296</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1878199633879976</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4263140827011291</v>
+        <v>0.1642561746502353</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.453554760899928</v>
+        <v>-1.521638376283283</v>
       </c>
       <c r="G49" t="n">
-        <v>0.09325530866999392</v>
+        <v>0.09054970054793952</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.1500099593379906</v>
       </c>
       <c r="E50" t="n">
-        <v>0.3105547977784083</v>
+        <v>0.09898551342804192</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.348523370760529</v>
+        <v>-1.46064203916374</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0359435023586859</v>
+        <v>0.03667601709146032</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.1179296731215256</v>
       </c>
       <c r="E51" t="n">
-        <v>0.1819676611823222</v>
+        <v>-0.03630526132618205</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.272132635759865</v>
+        <v>-1.329073000379033</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.004421048028500574</v>
+        <v>0.002707704841330727</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.09062460077459017</v>
       </c>
       <c r="E52" t="n">
-        <v>0.09700266130793399</v>
+        <v>-0.09039851622629057</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.209299217561956</v>
+        <v>-1.257336570062633</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.04796328514154443</v>
+        <v>-0.06610537567141542</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.06797888654270463</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.01093317109413959</v>
+        <v>-0.2195193334145312</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.136105686748806</v>
+        <v>-1.184137549963392</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.1003823077839795</v>
+        <v>-0.1195704122744734</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.04872688783392919</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.1244345296715392</v>
+        <v>-0.3427684442477182</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.06227539874913</v>
+        <v>-1.107691922101821</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.1714185491634723</v>
+        <v>-0.1885329233530229</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.03217277442852013</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.1995005169623064</v>
+        <v>-0.3482235747805529</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.049139537134007</v>
+        <v>-1.051180941639083</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.1978756882794496</v>
+        <v>-0.2188026766193522</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.01807100497382597</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.2803747788577454</v>
+        <v>-0.4411035152771006</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.022674469049232</v>
+        <v>-1.01473940104474</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.2525941118732248</v>
+        <v>-0.2588427492065087</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.006207628565456124</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.3646914330527504</v>
+        <v>-0.5130735452126948</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.9904572390620462</v>
+        <v>-0.9779654536815692</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.2799630824009405</v>
+        <v>-0.2763608908840665</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.002964395975460065</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.4589839498366467</v>
+        <v>-0.5854943065284056</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.9542053837981719</v>
+        <v>-0.9241192166555436</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.3168718222336724</v>
+        <v>-0.3383672566443042</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.009773814918219411</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.5511344252038037</v>
+        <v>-0.6907727145418879</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.9490936386063463</v>
+        <v>-0.9536253492345844</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.3359678287019774</v>
+        <v>-0.3281120503854624</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.01424758170984211</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.6864166610685533</v>
+        <v>-0.8667994813754379</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.9705787043654734</v>
+        <v>-0.9951054445395431</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.3855275432118176</v>
+        <v>-0.3655691089065909</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.01699689925872605</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.8204162337501016</v>
+        <v>-1.004182893971584</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.9813639316924093</v>
+        <v>-1.00232690535224</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.4156106607510621</v>
+        <v>-0.3995477898082252</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.01820117786787121</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.8932712585876571</v>
+        <v>-1.073280807440372</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.9787077271451716</v>
+        <v>-0.9488600389871519</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.4487037368300582</v>
+        <v>-0.4296461553643884</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.01835925217260907</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.9974353415247207</v>
+        <v>-1.169146309649602</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.017027823423899</v>
+        <v>-0.9995542059557434</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.4852337159225296</v>
+        <v>-0.451030584211852</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.0178580226765229</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.064806569557635</v>
+        <v>-1.28293677062778</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.041247163576887</v>
+        <v>-1.039796162286904</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.5092225060597074</v>
+        <v>-0.4652618633624144</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.01786749625213376</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.130426105406928</v>
+        <v>-1.347482846085996</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.06252485630592</v>
+        <v>-1.070899067197671</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.5368549623197783</v>
+        <v>-0.4926027775389997</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.01890088323546275</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.187736081956206</v>
+        <v>-1.403658980097199</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.095715519693196</v>
+        <v>-1.065903816855104</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.5692356510483326</v>
+        <v>-0.5443460080715979</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.02214687147105596</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.233860723214601</v>
+        <v>-1.474268886923645</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.142995960634029</v>
+        <v>-1.110575627061485</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.5974707089370305</v>
+        <v>-0.5621983862800135</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.02818410215675444</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.294958917087161</v>
+        <v>-1.564469445887239</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.163204462416722</v>
+        <v>-1.147332496645707</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.6190923969277491</v>
+        <v>-0.5978183637227769</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.03763847402051902</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.30034939602826</v>
+        <v>-1.54049773352901</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.218502310653408</v>
+        <v>-1.230351239640592</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.6220431931618562</v>
+        <v>-0.5808137752550411</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.05100438114823034</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.302515224351392</v>
+        <v>-1.548934156329789</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.2319852171336</v>
+        <v>-1.219482453180942</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.6481612163815615</v>
+        <v>-0.6002135222203665</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.06846404732976996</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.296595334262876</v>
+        <v>-1.555573752816868</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.264983145587024</v>
+        <v>-1.281669355461497</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.6411428591542216</v>
+        <v>-0.6173407047441287</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.09071175142148531</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.295391350846975</v>
+        <v>-1.530435872124697</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.337091017595563</v>
+        <v>-1.417008923869861</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.6541756441749742</v>
+        <v>-0.6263699704427069</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.1170762410641075</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.234718271686108</v>
+        <v>-1.472048775660282</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.396841896693186</v>
+        <v>-1.45516922093128</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.6525245889030172</v>
+        <v>-0.6641752936702586</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.1468934990099263</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.169988000183514</v>
+        <v>-1.396383846264949</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.444451084878786</v>
+        <v>-1.510097457237856</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.669928675414023</v>
+        <v>-0.6653176750978077</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.1788567697109362</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.038897139209377</v>
+        <v>-1.265494259114139</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.476557309302804</v>
+        <v>-1.534110644202104</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.6671852522100102</v>
+        <v>-0.67245374701576</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.2118636094608352</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.9048475530323352</v>
+        <v>-1.115778860354823</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.493655215634082</v>
+        <v>-1.565231846733174</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.6338171019058008</v>
+        <v>-0.6184123353731751</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.2446983406431691</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.7936248581032664</v>
+        <v>-0.9941564079665232</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.53437412993446</v>
+        <v>-1.598948261743807</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.6078058148045263</v>
+        <v>-0.603531490701876</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.275841110152694</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.6223481535002303</v>
+        <v>-0.8270381425375553</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.57676361696845</v>
+        <v>-1.660754573522071</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5657377559671826</v>
+        <v>-0.5302623297248085</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.3050301294593295</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.4365486276631461</v>
+        <v>-0.6213326355734448</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.601317193652296</v>
+        <v>-1.635659387277272</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.5151436159895776</v>
+        <v>-0.4889402038751275</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.3319540957910053</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.2356413666630126</v>
+        <v>-0.4118425708101126</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.652950028542403</v>
+        <v>-1.760607127195203</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.4837857642359297</v>
+        <v>-0.4242178613413307</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.3561551943724322</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.02197273534327944</v>
+        <v>-0.1364999804989693</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.639841613357734</v>
+        <v>-1.770822688610056</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.4531232220537746</v>
+        <v>-0.4050736711395626</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.3767073529440172</v>
       </c>
       <c r="E82" t="n">
-        <v>0.1880339322332584</v>
+        <v>0.08334531751419147</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.664877027376211</v>
+        <v>-1.827701451240873</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.3687486253944785</v>
+        <v>-0.2744231728940378</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.3938009236824994</v>
       </c>
       <c r="E83" t="n">
-        <v>0.3995824792806153</v>
+        <v>0.3447030366281785</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.653723407960519</v>
+        <v>-1.881455590244709</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.3296118453295859</v>
+        <v>-0.2186532460535489</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.4073938732936435</v>
       </c>
       <c r="E84" t="n">
-        <v>0.635047235904617</v>
+        <v>0.605824716440264</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.608086703243523</v>
+        <v>-1.871383970109569</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2628139427328153</v>
+        <v>-0.1282300660429423</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.4168409400073104</v>
       </c>
       <c r="E85" t="n">
-        <v>0.8420085695421518</v>
+        <v>0.8128915663548762</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.548384617800039</v>
+        <v>-1.867448151982513</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2130041607455084</v>
+        <v>-0.07241744475508106</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.4212221003183008</v>
       </c>
       <c r="E86" t="n">
-        <v>1.057252016049248</v>
+        <v>1.055347843696441</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.457301503617191</v>
+        <v>-1.831016980039675</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1471412665461926</v>
+        <v>-0.03420408459478499</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.4195886777957249</v>
       </c>
       <c r="E87" t="n">
-        <v>1.23236512170903</v>
+        <v>1.226186015332895</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.327173097470963</v>
+        <v>-1.719375269605681</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.08517942499535743</v>
+        <v>0.03489077927061875</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.4122567170050689</v>
       </c>
       <c r="E88" t="n">
-        <v>1.395188325732338</v>
+        <v>1.397405997312994</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.212236595541175</v>
+        <v>-1.651383142323837</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.06652561101769483</v>
+        <v>0.08366735563151444</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.3993986520208131</v>
       </c>
       <c r="E89" t="n">
-        <v>1.483810409984508</v>
+        <v>1.482941882940818</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.029762967154398</v>
+        <v>-1.492223731805755</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.03566789421898033</v>
+        <v>0.115761991562674</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.3830304299545626</v>
       </c>
       <c r="E90" t="n">
-        <v>1.623855516413983</v>
+        <v>1.632426121763646</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.8733701568260447</v>
+        <v>-1.39724078481578</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.001507456955675101</v>
+        <v>0.1590901465181793</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.3639546930162991</v>
       </c>
       <c r="E91" t="n">
-        <v>1.673947081753947</v>
+        <v>1.695855432462737</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.6613989347497015</v>
+        <v>-1.135344505744224</v>
       </c>
       <c r="G91" t="n">
-        <v>0.003129769949640383</v>
+        <v>0.1612876907165025</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.3435213112960561</v>
       </c>
       <c r="E92" t="n">
-        <v>1.747089379230251</v>
+        <v>1.772129062693466</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4694294513466339</v>
+        <v>-0.8987678637265106</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02859029867981131</v>
+        <v>0.221919905192027</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.3230631949024141</v>
       </c>
       <c r="E93" t="n">
-        <v>1.784256725429924</v>
+        <v>1.833401083958899</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2653347448898151</v>
+        <v>-0.6774489973583265</v>
       </c>
       <c r="G93" t="n">
-        <v>0.008939874316342383</v>
+        <v>0.1911585558602387</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.3044500384132072</v>
       </c>
       <c r="E94" t="n">
-        <v>1.782070769724459</v>
+        <v>1.88771695990602</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.1298695328220411</v>
+        <v>-0.4930510692364095</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.04837620143970287</v>
+        <v>0.1320694406968868</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.2900680737968078</v>
       </c>
       <c r="E95" t="n">
-        <v>1.749530281778597</v>
+        <v>1.8529405027592</v>
       </c>
       <c r="F95" t="n">
-        <v>0.008127459974913971</v>
+        <v>-0.3122266663595593</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.06181885315523006</v>
+        <v>0.08879251907822837</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.2798168552212997</v>
       </c>
       <c r="E96" t="n">
-        <v>1.716941610099271</v>
+        <v>1.852510508682092</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09971619839878609</v>
+        <v>-0.1461470958430933</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.08501352657128196</v>
+        <v>0.03672298098356992</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.2724636662647154</v>
       </c>
       <c r="E97" t="n">
-        <v>1.607391317665845</v>
+        <v>1.725873898410246</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1697277730413422</v>
+        <v>-0.007049196224607956</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1006775093915256</v>
+        <v>0.01237250788508045</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2636017309613092</v>
       </c>
       <c r="E98" t="n">
-        <v>1.491746697830353</v>
+        <v>1.596601210973495</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1859815491560012</v>
+        <v>0.06334601852362265</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1257354904750428</v>
+        <v>-0.02201299010794481</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2502905163891723</v>
       </c>
       <c r="E99" t="n">
-        <v>1.350445764727454</v>
+        <v>1.444619956900061</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2262619304897964</v>
+        <v>0.1287972162661335</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1389134366168613</v>
+        <v>-0.04070400924688904</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.23019679663643</v>
       </c>
       <c r="E100" t="n">
-        <v>1.181736826173527</v>
+        <v>1.284815860226656</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2574117992926732</v>
+        <v>0.1899271260138843</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1588755304461485</v>
+        <v>-0.04840913715624726</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2066593402692065</v>
       </c>
       <c r="E101" t="n">
-        <v>1.065277352313899</v>
+        <v>1.149550092220178</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2583529068968955</v>
+        <v>0.2181969493811568</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1810308990290217</v>
+        <v>-0.1040625691474773</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1812386721842343</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9118670540948441</v>
+        <v>0.9912335920773619</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2679012150913863</v>
+        <v>0.2037515880730558</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1973718938004557</v>
+        <v>-0.09110114484590433</v>
       </c>
     </row>
   </sheetData>
